--- a/CryptoDashboard.xlsx
+++ b/CryptoDashboard.xlsx
@@ -1,3 +1,142 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Crypto Dashboard" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="14"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -280,4 +419,192 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.5" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="20.5" customWidth="1" min="4" max="4"/>
+    <col width="13.33" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Currency Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Percent Change 24hrs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Price t-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>BTC-USD</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Bitcoin USD</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>$29,372.21</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>$29,210.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>ETH-USD</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Ethereum USD</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>$1,962.83</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>3.39%</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>$1,896.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>USDT-USD</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Tether USD</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>$1.00</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>$1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>BNB-USD</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>BNB USD</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>$325.78</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>$325.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>USDC-USD</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>USD Coin USD</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>$1.00</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>-0.01%</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>$1.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>